--- a/docs/en/assets/demo-portfolio-03-calculation.xlsx
+++ b/docs/en/assets/demo-portfolio-03-calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b4af0312c2de9c5/Projects/PortfolioPerformance/portfolio-help/docs/en/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="880" documentId="8_{6835218D-69E8-464C-AC23-083D53515D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0712F20B-2BC5-4A12-A7E8-7CFD5D963EFA}"/>
+  <xr:revisionPtr revIDLastSave="1008" documentId="8_{6835218D-69E8-464C-AC23-083D53515D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CBF707-3FE8-4782-9F6B-35DB8BEBA4E6}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="709" firstSheet="3" activeTab="3" xr2:uid="{F6198169-F7A1-41B8-ADFA-DF561FC496C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="20880" tabRatio="709" firstSheet="5" activeTab="10" xr2:uid="{F6198169-F7A1-41B8-ADFA-DF561FC496C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Export-entire-portfolio-raw" sheetId="12" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="TTWROR-IRR" sheetId="26" r:id="rId8"/>
     <sheet name="example" sheetId="27" r:id="rId9"/>
     <sheet name="TTWROR" sheetId="23" r:id="rId10"/>
+    <sheet name="TTWROR-security" sheetId="28" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Export-entire-portfolio-cleaned'!$G$1:$I$1100</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
   <si>
     <t>XIRR</t>
   </si>
@@ -406,6 +407,86 @@
   <si>
     <t>MVB = 177.94 EUR</t>
   </si>
+  <si>
+    <t>Reporting period - 3 years</t>
+  </si>
+  <si>
+    <t>=(C5/(B5+D5))-1</t>
+  </si>
+  <si>
+    <t>HP1</t>
+  </si>
+  <si>
+    <t>HP2</t>
+  </si>
+  <si>
+    <t>HP3</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Reporting period - share-1 - 3 years</t>
+  </si>
+  <si>
+    <t>From …</t>
+  </si>
+  <si>
+    <t>… To</t>
+  </si>
+  <si>
+    <r>
+      <t>CFin</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CFout</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>1st Buy</t>
+  </si>
+  <si>
+    <t>2nd Buy</t>
+  </si>
+  <si>
+    <t>HP4</t>
+  </si>
+  <si>
+    <t>dividend</t>
+  </si>
+  <si>
+    <t>=((F6+H6)/(E6+G6))-1</t>
+  </si>
+  <si>
+    <t>(J3*J4*J5*J6)-1</t>
+  </si>
+  <si>
+    <t>=GEOMEAN(J3:J6)-1</t>
+  </si>
 </sst>
 </file>
 
@@ -514,7 +595,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,8 +632,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -720,12 +807,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -906,6 +1088,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,9 +1148,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,6 +1696,228 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2D8307-9982-5A7F-668E-C890AE8C4A0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3040063" y="924719"/>
+          <a:ext cx="0" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF924CB9-B790-C97F-BA3B-E0DA486E618A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1928813" y="1678781"/>
+          <a:ext cx="611187" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF4DEE8-38A6-4CC4-9223-2F4134DAA2D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3465513" y="927100"/>
+          <a:ext cx="0" cy="203994"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FFBF75-5A7E-438C-9983-A47C941B800C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2355850" y="1689100"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23709,130 +24153,439 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D490605C-F7A1-422A-905B-0CCD6AF5DC5A}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G2" s="81" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="82">
         <v>44211</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>160.26</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>155</v>
       </c>
-      <c r="E2" s="2">
-        <f>(C2/(B2+D2))-1</f>
+      <c r="F3" s="83">
+        <f>(D3/(C3+E3))-1</f>
         <v>3.3935483870967786E-2</v>
       </c>
-      <c r="F2" s="71">
-        <f>1+E2</f>
+      <c r="G3" s="84">
+        <f>1+F3</f>
         <v>1.0339354838709678</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="82">
         <v>44575</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4">
         <v>160.26</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>264.57</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>84</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E4" si="0">(C3/(B3+D3))-1</f>
+      <c r="F4" s="83">
+        <f t="shared" ref="F4:F5" si="0">(D4/(C4+E4))-1</f>
         <v>8.3149103414394521E-2</v>
       </c>
-      <c r="F3" s="71">
-        <f t="shared" ref="F3:F4" si="1">1+E3</f>
+      <c r="G4" s="84">
+        <f t="shared" ref="G4:G5" si="1">1+F4</f>
         <v>1.0831491034143945</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="82">
         <v>44834</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5">
         <v>264.57</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>426.82</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>67</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F5" s="83">
         <f t="shared" si="0"/>
         <v>0.2872696564827939</v>
       </c>
-      <c r="F4" s="71">
+      <c r="G5" s="84">
         <f t="shared" si="1"/>
         <v>1.2872696564827939</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="82"/>
+      <c r="B6" s="1"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="82"/>
+      <c r="B7" s="1"/>
+      <c r="F7" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="84"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="85"/>
+      <c r="G8" s="86"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="2">
-        <f>(F2*F3*F4)-1</f>
+      <c r="B9" s="72"/>
+      <c r="D9" s="83">
+        <f>(G3*G4*G5)-1</f>
         <v>0.44162138823750774</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="73" t="s">
+      <c r="G9" s="86"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="2">
-        <f>GEOMEAN(F2:F4)-1</f>
+      <c r="B10" s="94"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90">
+        <f>GEOMEAN(G3:G5)-1</f>
         <v>0.12966690478130505</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="91" t="s">
         <v>75</v>
       </c>
+      <c r="G10" s="92"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F23F1A-FC8C-4B96-898D-0E104FDB01D2}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="4" width="12.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="109"/>
+      <c r="E2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="110">
+        <v>44211</v>
+      </c>
+      <c r="C3" s="110">
+        <v>44574</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>160.26</v>
+      </c>
+      <c r="G3">
+        <v>153</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="83">
+        <f>((F3+H3)/(E3+G3))-1</f>
+        <v>4.7450980392156783E-2</v>
+      </c>
+      <c r="J3" s="84">
+        <f>1+I3</f>
+        <v>1.0474509803921568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="110">
+        <v>44575</v>
+      </c>
+      <c r="C4" s="110">
+        <v>44909</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4">
+        <v>160.26</v>
+      </c>
+      <c r="F4">
+        <v>287.49</v>
+      </c>
+      <c r="G4">
+        <v>83</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="83">
+        <f t="shared" ref="I4:I6" si="0">((F4+H4)/(E4+G4))-1</f>
+        <v>0.18182191893447341</v>
+      </c>
+      <c r="J4" s="84">
+        <f t="shared" ref="J4:J6" si="1">1+I4</f>
+        <v>1.1818219189344734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="110">
+        <v>44910</v>
+      </c>
+      <c r="C5" s="110">
+        <v>45027</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <f>F4</f>
+        <v>287.49</v>
+      </c>
+      <c r="F5">
+        <v>339</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5" s="83">
+        <f>((F5+H5)/(E5+G5))-1</f>
+        <v>0.24873908657692434</v>
+      </c>
+      <c r="J5" s="84">
+        <f t="shared" si="1"/>
+        <v>1.2487390865769243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45028</v>
+      </c>
+      <c r="C6" s="110">
+        <v>45089</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>339</v>
+      </c>
+      <c r="F6">
+        <v>190.06</v>
+      </c>
+      <c r="H6">
+        <v>105</v>
+      </c>
+      <c r="I6" s="83">
+        <f t="shared" si="0"/>
+        <v>-0.12961651917404127</v>
+      </c>
+      <c r="J6" s="84">
+        <f t="shared" si="1"/>
+        <v>0.87038348082595873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="82"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="82"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="I8" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="84"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="85"/>
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="F10" s="83">
+        <f>(J3*J4*J5*J6)-1</f>
+        <v>0.34545164384064586</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="86"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90">
+        <f>GEOMEAN(J3:J6)-1</f>
+        <v>7.7003273726184318E-2</v>
+      </c>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -58247,7 +59000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F919DB-56B6-45FE-90AD-D585757D61F2}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -58376,7 +59129,7 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C10" s="50"/>
-      <c r="F10" s="91">
+      <c r="F10" s="79">
         <f>SUM(F7:F9)</f>
         <v>426.8412454761434</v>
       </c>
@@ -58443,21 +59196,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="F2" s="79" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="F2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="J2" s="79" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="J2" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -58691,8 +59444,8 @@
       <c r="D15" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
@@ -58703,8 +59456,8 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
       <c r="E20" s="2"/>
       <c r="L20" s="9"/>
     </row>
@@ -58712,8 +59465,8 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
@@ -58729,8 +59482,8 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
@@ -58759,8 +59512,8 @@
       <c r="N35" s="13"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
@@ -58823,22 +59576,22 @@
       <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="81"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="4"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="99" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="16">
@@ -58847,7 +59600,7 @@
       <c r="D3">
         <v>77.5</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="99" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1">
@@ -58858,14 +59611,14 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="83"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="16">
         <v>45028</v>
       </c>
       <c r="D4">
         <v>105</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="1">
         <v>45089</v>
       </c>
@@ -58875,8 +59628,8 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="6"/>
       <c r="I5" s="5"/>
       <c r="L5" s="62">
@@ -58917,10 +59670,10 @@
       <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="98"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
@@ -59083,42 +59836,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="88"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="105"/>
     </row>
     <row r="3" spans="2:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="18" t="s">
         <v>29</v>
       </c>
@@ -59339,36 +60092,36 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="21" x14ac:dyDescent="0.5">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="F13" s="79" t="s">
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="F13" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="J13" s="79" t="s">
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="J13" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
@@ -60254,7 +61007,7 @@
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C35" s="89">
+      <c r="C35" s="78">
         <f>IRR(C28:C30)</f>
         <v>-5.0641131038207332E-2</v>
       </c>
@@ -60442,7 +61195,7 @@
         <f>(E16/(D16+F16))-1</f>
         <v>1</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16">
         <f>1+G16</f>
         <v>2</v>
       </c>
@@ -60467,7 +61220,7 @@
         <f>(E17/(D17+F17))-1</f>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17">
         <f>1+G17</f>
         <v>0.7</v>
       </c>

--- a/docs/en/assets/demo-portfolio-03-calculation.xlsx
+++ b/docs/en/assets/demo-portfolio-03-calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b4af0312c2de9c5/Projects/PortfolioPerformance/portfolio-help/docs/en/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1008" documentId="8_{6835218D-69E8-464C-AC23-083D53515D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CBF707-3FE8-4782-9F6B-35DB8BEBA4E6}"/>
+  <xr:revisionPtr revIDLastSave="1015" documentId="8_{6835218D-69E8-464C-AC23-083D53515D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4686A774-2ACA-44C0-B097-34EEB73F19C8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="20880" tabRatio="709" firstSheet="5" activeTab="10" xr2:uid="{F6198169-F7A1-41B8-ADFA-DF561FC496C5}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="709" firstSheet="5" activeTab="10" xr2:uid="{F6198169-F7A1-41B8-ADFA-DF561FC496C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Export-entire-portfolio-raw" sheetId="12" r:id="rId1"/>
@@ -907,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1115,6 +1115,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1156,13 +1159,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24167,15 +24163,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="80" t="s">
@@ -24337,7 +24333,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24349,30 +24345,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="109"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="21" t="s">
         <v>67</v>
       </c>
@@ -24396,13 +24392,13 @@
       <c r="A3" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="110">
+      <c r="B3" s="1">
         <v>44211</v>
       </c>
-      <c r="C3" s="110">
+      <c r="C3" s="1">
         <v>44574</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E3">
@@ -24430,13 +24426,13 @@
       <c r="A4" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="1">
         <v>44575</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="1">
         <v>44909</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E4">
@@ -24464,13 +24460,13 @@
       <c r="A5" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="1">
         <v>44910</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="1">
         <v>45027</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E5">
@@ -24481,15 +24477,15 @@
         <v>339</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I5" s="83">
         <f>((F5+H5)/(E5+G5))-1</f>
-        <v>0.24873908657692434</v>
+        <v>0.28352290514452672</v>
       </c>
       <c r="J5" s="84">
         <f t="shared" si="1"/>
-        <v>1.2487390865769243</v>
+        <v>1.2835229051445267</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -24499,10 +24495,10 @@
       <c r="B6" s="1">
         <v>45028</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="1">
         <v>45089</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E6">
@@ -24512,15 +24508,15 @@
         <v>190.06</v>
       </c>
       <c r="H6">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I6" s="83">
         <f t="shared" si="0"/>
-        <v>-0.12961651917404127</v>
+        <v>-0.12371681415929203</v>
       </c>
       <c r="J6" s="84">
         <f t="shared" si="1"/>
-        <v>0.87038348082595873</v>
+        <v>0.87628318584070797</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -24554,7 +24550,7 @@
       <c r="D10" s="72"/>
       <c r="F10" s="83">
         <f>(J3*J4*J5*J6)-1</f>
-        <v>0.34545164384064586</v>
+        <v>0.39230329153413823</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>122</v>
@@ -24571,7 +24567,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="90">
         <f>GEOMEAN(J3:J6)-1</f>
-        <v>7.7003273726184318E-2</v>
+        <v>8.625918690013612E-2</v>
       </c>
       <c r="G11" s="89"/>
       <c r="H11" s="89"/>
@@ -59196,21 +59192,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="F2" s="96" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="F2" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="J2" s="96" t="s">
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="J2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -59444,8 +59440,8 @@
       <c r="D15" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
@@ -59456,8 +59452,8 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
       <c r="E20" s="2"/>
       <c r="L20" s="9"/>
     </row>
@@ -59465,8 +59461,8 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
@@ -59482,8 +59478,8 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
@@ -59512,8 +59508,8 @@
       <c r="N35" s="13"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
@@ -59576,22 +59572,22 @@
       <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="98"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="4"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="99"/>
     </row>
     <row r="3" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="100" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="16">
@@ -59600,7 +59596,7 @@
       <c r="D3">
         <v>77.5</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="100" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1">
@@ -59611,14 +59607,14 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="100"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="16">
         <v>45028</v>
       </c>
       <c r="D4">
         <v>105</v>
       </c>
-      <c r="G4" s="100"/>
+      <c r="G4" s="101"/>
       <c r="H4" s="1">
         <v>45089</v>
       </c>
@@ -59628,8 +59624,8 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="6"/>
       <c r="I5" s="5"/>
       <c r="L5" s="62">
@@ -59670,10 +59666,10 @@
       <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="98"/>
+      <c r="D12" s="99"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
@@ -59836,42 +59832,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="2:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
       <c r="M3" s="18" t="s">
         <v>29</v>
       </c>
@@ -60092,36 +60088,36 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="21" x14ac:dyDescent="0.5">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="106"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="F13" s="96" t="s">
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="F13" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="J13" s="96" t="s">
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="J13" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">

--- a/docs/en/assets/demo-portfolio-03-calculation.xlsx
+++ b/docs/en/assets/demo-portfolio-03-calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b4af0312c2de9c5/Projects/PortfolioPerformance/portfolio-help/docs/en/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1182" documentId="8_{6835218D-69E8-464C-AC23-083D53515D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64B4F23B-8CC5-4154-8E4D-37CA4F674A44}"/>
+  <xr:revisionPtr revIDLastSave="1256" documentId="8_{6835218D-69E8-464C-AC23-083D53515D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71D4D8CA-A740-48D6-A0E3-9990BE38A6C9}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="3590" windowWidth="18940" windowHeight="15590" tabRatio="709" firstSheet="7" activeTab="10" xr2:uid="{F6198169-F7A1-41B8-ADFA-DF561FC496C5}"/>
+    <workbookView xWindow="230" yWindow="2420" windowWidth="19860" windowHeight="15590" tabRatio="709" firstSheet="7" activeTab="10" xr2:uid="{F6198169-F7A1-41B8-ADFA-DF561FC496C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Export-entire-portfolio-raw" sheetId="12" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
   <si>
     <t>XIRR</t>
   </si>
@@ -405,16 +405,7 @@
     <t>… To</t>
   </si>
   <si>
-    <t>1st Buy</t>
-  </si>
-  <si>
-    <t>2nd Buy</t>
-  </si>
-  <si>
     <t>HP4</t>
-  </si>
-  <si>
-    <t>dividend</t>
   </si>
   <si>
     <t>(J3*J4*J5*J6)-1</t>
@@ -459,17 +450,28 @@
     <t>HP5</t>
   </si>
   <si>
-    <t>End reporting</t>
+    <t>start --&gt;  1st Buy</t>
+  </si>
+  <si>
+    <t>1st buy --&gt; 2nd Buy</t>
+  </si>
+  <si>
+    <t>2nd buy --&gt; dividend</t>
+  </si>
+  <si>
+    <t>dividend --&gt; sell</t>
+  </si>
+  <si>
+    <t>sell --&gt; End</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00;[$EUR]\ \-#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -894,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1111,6 +1113,9 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1151,10 +1156,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1919,59 +1920,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF4DEE8-38A6-4CC4-9223-2F4134DAA2D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3465513" y="927100"/>
-          <a:ext cx="0" cy="203994"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -2410,7 +2358,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G1" s="69" t="s">
         <v>63</v>
@@ -31395,15 +31343,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="80" t="s">
@@ -31416,10 +31364,10 @@
         <v>54</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>67</v>
@@ -31513,7 +31461,7 @@
       <c r="A7" s="82"/>
       <c r="B7" s="1"/>
       <c r="F7" s="93" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G7" s="84"/>
     </row>
@@ -31531,7 +31479,7 @@
         <v>0.44162138823750774</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G9" s="86"/>
     </row>
@@ -31547,7 +31495,7 @@
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="91" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G10" s="92"/>
     </row>
@@ -31562,35 +31510,38 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F23F1A-FC8C-4B96-898D-0E104FDB01D2}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="4" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="114"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>105</v>
       </c>
@@ -31605,13 +31556,13 @@
         <v>54</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>67</v>
@@ -31620,203 +31571,179 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="1">
-        <v>44211</v>
+        <v>43994</v>
       </c>
       <c r="C3" s="1">
-        <v>44574</v>
+        <v>44210</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>160.26</v>
-      </c>
-      <c r="G3">
-        <v>153</v>
-      </c>
-      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="83">
-        <f>((F3)/(E3+G3-H3))-1</f>
-        <v>4.7450980392156783E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="84">
-        <f>1+I3</f>
-        <v>1.0474509803921568</v>
-      </c>
-      <c r="K3" s="2">
-        <f>J3-1</f>
-        <v>4.7450980392156783E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="1">
-        <v>44575</v>
+        <v>44211</v>
       </c>
       <c r="C4" s="1">
-        <v>44909</v>
+        <v>44574</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E4">
+        <v>150.5</v>
+      </c>
+      <c r="F4">
         <v>160.26</v>
       </c>
-      <c r="F4">
-        <v>239.43</v>
-      </c>
       <c r="G4">
-        <v>83</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="I4" s="83">
-        <f t="shared" ref="I4:I7" si="0">((F4)/(E4+G4-H4))-1</f>
-        <v>-1.5744470936446486E-2</v>
+        <f>((F4)/(E4+G4-H4))-1</f>
+        <v>-0.47196046128500824</v>
       </c>
       <c r="J4" s="84">
-        <f t="shared" ref="J4:J7" si="1">1+I4</f>
-        <v>0.98425552906355351</v>
-      </c>
-      <c r="K4" s="114">
-        <f>(J3*J4)-1</f>
-        <v>3.0959418874020095E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <f>1+I4</f>
+        <v>0.52803953871499176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="1">
-        <v>44910</v>
+        <v>44575</v>
       </c>
       <c r="C5" s="1">
-        <v>45027</v>
+        <v>44909</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <f>F4</f>
-        <v>239.43</v>
+        <v>160.26</v>
       </c>
       <c r="F5">
-        <v>283.47000000000003</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
+        <v>287.49</v>
+      </c>
+      <c r="G5">
+        <v>83</v>
       </c>
       <c r="I5" s="83">
-        <f t="shared" si="0"/>
-        <v>0.35353101274888998</v>
+        <f t="shared" ref="I5:I7" si="0">((F5)/(E5+G5-H5))-1</f>
+        <v>0.18182191893447341</v>
       </c>
       <c r="J5" s="84">
-        <f t="shared" si="1"/>
-        <v>1.35353101274889</v>
-      </c>
-      <c r="K5" s="114">
-        <f>(J3*J4*J5)-1</f>
-        <v>0.39543554633155953</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" ref="J5:J7" si="1">1+I5</f>
+        <v>1.1818219189344734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1">
-        <v>45028</v>
+        <v>44910</v>
       </c>
       <c r="C6" s="1">
-        <v>45028</v>
+        <v>45027</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <f>F5</f>
-        <v>283.47000000000003</v>
+        <v>287.49</v>
       </c>
       <c r="F6">
-        <v>224</v>
+        <v>339</v>
       </c>
       <c r="H6">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="I6" s="83">
         <f t="shared" si="0"/>
-        <v>0.26933756445854806</v>
+        <v>0.31655598275661179</v>
       </c>
       <c r="J6" s="84">
         <f t="shared" si="1"/>
-        <v>1.2693375644585481</v>
-      </c>
-      <c r="K6" s="114">
-        <f>(J3*J4*J5*J6)-1</f>
-        <v>0.77127875773938515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
-        <v>126</v>
+        <v>1.3165559827566118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="100" t="s">
+        <v>123</v>
       </c>
       <c r="B7" s="1">
-        <v>45029</v>
+        <v>45028</v>
       </c>
       <c r="C7" s="1">
         <v>45089</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <f>F6</f>
-        <v>224</v>
+        <v>339</v>
       </c>
       <c r="F7">
         <v>190.06</v>
       </c>
+      <c r="H7">
+        <v>107</v>
+      </c>
       <c r="I7" s="83">
         <f t="shared" si="0"/>
-        <v>-0.15151785714285715</v>
+        <v>-0.18077586206896545</v>
       </c>
       <c r="J7" s="84">
         <f t="shared" si="1"/>
-        <v>0.84848214285714285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.81922413793103455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="82"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="J8" s="84"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="85"/>
       <c r="I9" s="93" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J9" s="86"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="85"/>
       <c r="I10" s="93"/>
       <c r="J10" s="86"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="87" t="s">
         <v>69</v>
       </c>
@@ -31825,14 +31752,14 @@
       <c r="D11" s="72"/>
       <c r="F11" s="83">
         <f>(J3*J4*J5*J6*J7)-1</f>
-        <v>0.50289839596405161</v>
+        <v>-0.32692950284195754</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J11" s="86"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="88" t="s">
         <v>70</v>
       </c>
@@ -31842,12 +31769,12 @@
       <c r="E12" s="89"/>
       <c r="F12" s="90">
         <f>GEOMEAN(J3:J6)-1</f>
-        <v>0.15364377924156236</v>
+        <v>-4.7939704972544295E-2</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="89"/>
       <c r="I12" s="91" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J12" s="92"/>
     </row>
@@ -31878,19 +31805,19 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -58419,10 +58346,10 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D1102" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F1102" s="96" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.35">
@@ -58922,21 +58849,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="F2" s="101" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="F2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="J2" s="101" t="s">
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="J2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -59170,8 +59097,8 @@
       <c r="D15" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
@@ -59182,8 +59109,8 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
       <c r="E20" s="2"/>
       <c r="L20" s="9"/>
     </row>
@@ -59191,8 +59118,8 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
@@ -59208,8 +59135,8 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
@@ -59238,8 +59165,8 @@
       <c r="N35" s="13"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
@@ -59302,22 +59229,22 @@
       <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="103"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="4"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="H2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="103"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="16">
@@ -59326,7 +59253,7 @@
       <c r="D3">
         <v>77.5</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="105" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1">
@@ -59337,14 +59264,14 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="105"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="16">
         <v>45028</v>
       </c>
       <c r="D4">
         <v>105</v>
       </c>
-      <c r="G4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1">
         <v>45089</v>
       </c>
@@ -59354,8 +59281,8 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="6"/>
       <c r="I5" s="5"/>
       <c r="L5" s="62">
@@ -59396,10 +59323,10 @@
       <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="103"/>
+      <c r="D12" s="104"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
@@ -59562,42 +59489,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="2:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
       <c r="M3" s="18" t="s">
         <v>29</v>
       </c>
@@ -59818,36 +59745,36 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="21" x14ac:dyDescent="0.5">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="F13" s="101" t="s">
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="F13" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="J13" s="101" t="s">
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="J13" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
